--- a/203-ajout-cas-usage-saisie-offre/ig/StructureDefinition-ror-measure.xlsx
+++ b/203-ajout-cas-usage-saisie-offre/ig/StructureDefinition-ror-measure.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-07T09:25:04+00:00</t>
+    <t>2024-02-07T09:30:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/203-ajout-cas-usage-saisie-offre/ig/StructureDefinition-ror-measure.xlsx
+++ b/203-ajout-cas-usage-saisie-offre/ig/StructureDefinition-ror-measure.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-07T09:30:33+00:00</t>
+    <t>2024-02-21T11:25:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -3100,7 +3100,7 @@
         <v>85</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="I12" t="s" s="2">
         <v>76</v>
@@ -4020,7 +4020,7 @@
         <v>85</v>
       </c>
       <c r="H20" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="I20" t="s" s="2">
         <v>76</v>
@@ -4708,7 +4708,7 @@
         <v>85</v>
       </c>
       <c r="H26" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="I26" t="s" s="2">
         <v>76</v>
@@ -5398,7 +5398,7 @@
         <v>85</v>
       </c>
       <c r="H32" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="I32" t="s" s="2">
         <v>76</v>
@@ -6536,7 +6536,7 @@
         <v>85</v>
       </c>
       <c r="H42" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="I42" t="s" s="2">
         <v>76</v>
@@ -7910,7 +7910,7 @@
         <v>85</v>
       </c>
       <c r="H54" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="I54" t="s" s="2">
         <v>76</v>
@@ -8024,7 +8024,7 @@
         <v>85</v>
       </c>
       <c r="H55" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="I55" t="s" s="2">
         <v>76</v>
